--- a/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -605,13 +605,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>7126.833333333333</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -623,13 +621,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>9209.770833333334</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -641,13 +637,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>9070.404761904761</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -659,13 +653,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>7610.547619047619</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -678,12 +670,12 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7842.24</v>
+        <v>7126.833333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -696,12 +688,12 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9079.440000000001</v>
+        <v>9209.770833333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -714,12 +706,12 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9234.54347826087</v>
+        <v>9070.404761904761</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -732,12 +724,12 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8471.91304347826</v>
+        <v>7610.547619047619</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -750,12 +742,12 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7842.490909090909</v>
+        <v>7842.24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -768,12 +760,12 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8778.454545454546</v>
+        <v>9079.440000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -786,12 +778,12 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9693.76</v>
+        <v>9234.54347826087</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -804,12 +796,12 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8742.48</v>
+        <v>8471.91304347826</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -822,12 +814,12 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7835</v>
+        <v>7842.490909090909</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -840,12 +832,12 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8589.740740740741</v>
+        <v>8778.454545454546</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -858,12 +850,12 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9796</v>
+        <v>9693.76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -876,12 +868,12 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8774.639999999999</v>
+        <v>8742.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -894,12 +886,12 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7931.611111111111</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -912,12 +904,12 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8605.462962962964</v>
+        <v>8589.740740740741</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -930,24 +922,96 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9875.68</v>
+        <v>9796</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>8774.639999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>2019</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>7931.611111111111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>8605.462962962964</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9875.68</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>8915.040000000001</v>
       </c>
     </row>

--- a/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -529,7 +529,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>

--- a/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -469,13 +469,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>4865.486111111111</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -487,13 +485,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>6232.222222222223</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -505,13 +501,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>5928.235294117647</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -523,9 +517,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>4930.235294117647</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -590,430 +582,6 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>7126.833333333333</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>9209.770833333334</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>9070.404761904761</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>7610.547619047619</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>7842.24</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>9079.440000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>9234.54347826087</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>8471.91304347826</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>7842.490909090909</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>8778.454545454546</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>9693.76</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>8742.48</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>7835</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>8589.740740740741</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>9796</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>8774.639999999999</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>7931.611111111111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>8605.462962962964</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>9875.68</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>8915.040000000001</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -469,11 +469,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>4865.486111111111</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -485,11 +487,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>6232.222222222223</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -501,11 +505,13 @@
           <t>L</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>5928.235294117647</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -517,11 +523,13 @@
           <t>L</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>4930.235294117647</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -533,11 +541,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>5558.046153846154</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -549,11 +559,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>7013.169230769231</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -565,23 +577,459 @@
           <t>L</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>6880.406779661017</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5692.966101694915</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2014</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5520.048387096775</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7181.580645161291</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6527.566666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5372.866666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7126.833333333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>9209.770833333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>9070.404761904761</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7610.547619047619</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7842.24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>9079.440000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>9234.54347826087</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>8471.91304347826</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7842.490909090909</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8778.454545454546</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9693.76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>8742.48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>8589.740740740741</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>9796</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>8774.639999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>7931.611111111111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>8605.462962962964</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9875.68</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>8915.040000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1031,294 @@
         <v>8915.040000000001</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7020.347826086957</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8653.95652173913</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>8365.25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8133.840909090909</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>7534.847826086957</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>9077.978260869566</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>9002.577777777778</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8624.799999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8309.717391304348</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>9220.152173913044</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>10060.80434782609</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9065.826086956522</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>9167.934782608696</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>10026.13043478261</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>9024.652173913044</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -470,12 +470,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4865.486111111111</v>
+        <v>7126.833333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -488,12 +488,12 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6232.222222222223</v>
+        <v>9209.770833333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -506,12 +506,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5928.235294117647</v>
+        <v>9070.404761904761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -524,12 +524,12 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4930.235294117647</v>
+        <v>7610.547619047619</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5558.046153846154</v>
+        <v>7842.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -560,12 +560,12 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7013.169230769231</v>
+        <v>9079.440000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -578,12 +578,12 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6880.406779661017</v>
+        <v>9234.54347826087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5692.966101694915</v>
+        <v>8471.91304347826</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -614,12 +614,12 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5520.048387096775</v>
+        <v>7842.490909090909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -632,12 +632,12 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7181.580645161291</v>
+        <v>8778.454545454546</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -650,12 +650,12 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6527.566666666667</v>
+        <v>9693.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -668,12 +668,12 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5372.866666666667</v>
+        <v>8742.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -686,12 +686,12 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7126.833333333333</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -704,12 +704,12 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9209.770833333334</v>
+        <v>8589.740740740741</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -722,12 +722,12 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9070.404761904761</v>
+        <v>9796</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7610.547619047619</v>
+        <v>8774.639999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -758,12 +758,12 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7842.24</v>
+        <v>7931.611111111111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9079.440000000001</v>
+        <v>8605.462962962964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -794,12 +794,12 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9234.54347826087</v>
+        <v>9875.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -812,511 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8471.91304347826</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>7842.490909090909</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>8778.454545454546</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>9693.76</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>8742.48</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>7835</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>8589.740740740741</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>9796</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>8774.639999999999</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>7931.611111111111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>8605.462962962964</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>9875.68</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
         <v>8915.040000000001</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>7020.347826086957</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>8653.95652173913</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>8365.25</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>8133.840909090909</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>7534.847826086957</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>9077.978260869566</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>9002.577777777778</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>8624.799999999999</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>8309.717391304348</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>9220.152173913044</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>10060.80434782609</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>9065.826086956522</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>8472</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>9167.934782608696</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>10026.13043478261</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>9024.652173913044</v>
       </c>
     </row>
   </sheetData>

--- a/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -470,12 +470,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7126.833333333333</v>
+        <v>4865.486111111111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -488,12 +488,12 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9209.770833333334</v>
+        <v>6232.222222222223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -506,12 +506,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9070.404761904761</v>
+        <v>5928.235294117647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -524,12 +524,12 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7610.547619047619</v>
+        <v>4930.235294117647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7842.24</v>
+        <v>5558.046153846154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -560,12 +560,12 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9079.440000000001</v>
+        <v>7013.169230769231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -578,12 +578,12 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9234.54347826087</v>
+        <v>6880.406779661017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8471.91304347826</v>
+        <v>5692.966101694915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -614,12 +614,12 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7842.490909090909</v>
+        <v>5520.048387096775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -632,12 +632,12 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8778.454545454546</v>
+        <v>7181.580645161291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -650,12 +650,12 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9693.76</v>
+        <v>6527.566666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -668,12 +668,12 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8742.48</v>
+        <v>5372.866666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -686,12 +686,12 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7835</v>
+        <v>7126.833333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -704,12 +704,12 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8589.740740740741</v>
+        <v>9209.770833333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -722,12 +722,12 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9796</v>
+        <v>9070.404761904761</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8774.639999999999</v>
+        <v>7610.547619047619</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -758,12 +758,12 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7931.611111111111</v>
+        <v>7842.24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8605.462962962964</v>
+        <v>9079.440000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -794,24 +794,240 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9875.68</v>
+        <v>9234.54347826087</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>8471.91304347826</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7842.490909090909</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8778.454545454546</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9693.76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>8742.48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>8589.740740740741</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>9796</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>8774.639999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>2019</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>7931.611111111111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>8605.462962962964</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9875.68</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>8915.040000000001</v>
       </c>
     </row>

--- a/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,294 +1031,6 @@
         <v>8915.040000000001</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>7020.347826086957</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>8653.95652173913</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>8365.25</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>8133.840909090909</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>7534.847826086957</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>9077.978260869566</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>9002.577777777778</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>8624.799999999999</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>8309.717391304348</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>9220.152173913044</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>10060.80434782609</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>9065.826086956522</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>8472</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>9167.934782608696</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>10026.13043478261</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>9024.652173913044</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
